--- a/src/main/resources/EpisodeDetails.xlsx
+++ b/src/main/resources/EpisodeDetails.xlsx
@@ -12,7 +12,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Episode Title</t>
+  </si>
+  <si>
+    <t>Episode Duration</t>
+  </si>
+  <si>
+    <t>Master Distiller</t>
+  </si>
+  <si>
+    <t>41 MIN</t>
+  </si>
+  <si>
+    <t>The Trouble With Tickle</t>
+  </si>
+  <si>
+    <t>Tickle Unshackled</t>
+  </si>
+  <si>
+    <t>Risky Whiskey</t>
+  </si>
+  <si>
+    <t>Hillbilly Hack</t>
+  </si>
+  <si>
+    <t>Breaking The Code</t>
+  </si>
+  <si>
+    <t>Whiskey Deception</t>
+  </si>
+  <si>
+    <t>Unfinished Business</t>
+  </si>
+  <si>
+    <t>Legend Of “Popcorn” Sutton</t>
+  </si>
+  <si>
+    <t>100 Proof Heritage</t>
+  </si>
+  <si>
+    <t>Mobile Moonshine Madness</t>
+  </si>
+  <si>
+    <t>Bootlegger’s Bounty</t>
+  </si>
+  <si>
+    <t>Hillbilly Ingenuity</t>
+  </si>
+  <si>
+    <t>Secret Backwoods Recipes</t>
+  </si>
+  <si>
+    <t>Moonshiner’s Apprentice</t>
+  </si>
+  <si>
+    <t>Mid-season Secret Summit</t>
+  </si>
+  <si>
+    <t>Burden Of Proof</t>
+  </si>
+  <si>
+    <t>The Legend Of Jim Tom</t>
+  </si>
+  <si>
+    <t>Popcorn’s Secret Stash</t>
+  </si>
+  <si>
+    <t>Shiners On Shine: Secrets Of Backwoods Engineering</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +133,184 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>